--- a/xlsx/中東_intext.xlsx
+++ b/xlsx/中東_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="704">
   <si>
     <t>中東</t>
   </si>
@@ -29,7 +29,7 @@
     <t>阿拉伯语</t>
   </si>
   <si>
-    <t>政策_政策_政治學_中東</t>
+    <t>体育运动_体育运动_伊朗_中東</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%A7%86%E8%AF%AD</t>
@@ -1080,6 +1080,12 @@
   </si>
   <si>
     <t>葛摩法郎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>聯邦共和國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97%E8%AF%AD</t>
@@ -2469,7 +2475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I369"/>
+  <dimension ref="A1:I370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7685,7 +7691,7 @@
         <v>358</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7714,7 +7720,7 @@
         <v>360</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7772,7 +7778,7 @@
         <v>364</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7801,7 +7807,7 @@
         <v>366</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7830,7 +7836,7 @@
         <v>368</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7859,7 +7865,7 @@
         <v>370</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7975,7 +7981,7 @@
         <v>378</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8004,7 +8010,7 @@
         <v>380</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8091,7 +8097,7 @@
         <v>386</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -8120,7 +8126,7 @@
         <v>388</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8207,7 +8213,7 @@
         <v>394</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8265,7 +8271,7 @@
         <v>398</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8346,13 +8352,13 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>99</v>
+        <v>403</v>
       </c>
       <c r="F203" t="s">
-        <v>100</v>
+        <v>404</v>
       </c>
       <c r="G203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8375,13 +8381,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>99</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>100</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8526,7 +8532,7 @@
         <v>414</v>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8584,7 +8590,7 @@
         <v>418</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -8671,7 +8677,7 @@
         <v>424</v>
       </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8729,7 +8735,7 @@
         <v>428</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8961,7 +8967,7 @@
         <v>444</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8990,7 +8996,7 @@
         <v>446</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9280,7 +9286,7 @@
         <v>466</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9309,7 +9315,7 @@
         <v>468</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9367,7 +9373,7 @@
         <v>472</v>
       </c>
       <c r="G238" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -9396,7 +9402,7 @@
         <v>474</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9512,7 +9518,7 @@
         <v>482</v>
       </c>
       <c r="G243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -9541,7 +9547,7 @@
         <v>484</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9651,10 +9657,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>55</v>
+        <v>491</v>
       </c>
       <c r="F248" t="s">
-        <v>56</v>
+        <v>492</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9680,10 +9686,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>491</v>
+        <v>55</v>
       </c>
       <c r="F249" t="s">
-        <v>492</v>
+        <v>56</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9773,7 +9779,7 @@
         <v>498</v>
       </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9854,13 +9860,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9889,7 +9895,7 @@
         <v>500</v>
       </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9912,10 +9918,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10086,13 +10092,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>319</v>
+        <v>515</v>
       </c>
       <c r="F263" t="s">
-        <v>320</v>
+        <v>516</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10115,10 +10121,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>319</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>320</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10179,7 +10185,7 @@
         <v>520</v>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10237,7 +10243,7 @@
         <v>524</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10353,7 +10359,7 @@
         <v>532</v>
       </c>
       <c r="G272" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10382,7 +10388,7 @@
         <v>534</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10440,7 +10446,7 @@
         <v>538</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -10527,7 +10533,7 @@
         <v>544</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -10579,13 +10585,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10608,13 +10614,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -10933,7 +10939,7 @@
         <v>570</v>
       </c>
       <c r="G292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -10962,7 +10968,7 @@
         <v>572</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11101,10 +11107,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>111</v>
+        <v>581</v>
       </c>
       <c r="F298" t="s">
-        <v>112</v>
+        <v>582</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11130,10 +11136,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>111</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>112</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11165,7 +11171,7 @@
         <v>584</v>
       </c>
       <c r="G300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11194,7 +11200,7 @@
         <v>586</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11223,7 +11229,7 @@
         <v>588</v>
       </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11252,7 +11258,7 @@
         <v>590</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11362,10 +11368,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>119</v>
+        <v>597</v>
       </c>
       <c r="F307" t="s">
-        <v>120</v>
+        <v>598</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11391,13 +11397,13 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>119</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>120</v>
       </c>
       <c r="G308" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11426,7 +11432,7 @@
         <v>600</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11542,7 +11548,7 @@
         <v>608</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -11571,7 +11577,7 @@
         <v>610</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -11658,7 +11664,7 @@
         <v>616</v>
       </c>
       <c r="G317" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -11687,7 +11693,7 @@
         <v>618</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -11861,7 +11867,7 @@
         <v>630</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -11919,7 +11925,7 @@
         <v>634</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12267,7 +12273,7 @@
         <v>658</v>
       </c>
       <c r="G338" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -12290,13 +12296,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>43</v>
+        <v>659</v>
       </c>
       <c r="F339" t="s">
-        <v>44</v>
+        <v>660</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12319,10 +12325,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>43</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>44</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12377,10 +12383,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>505</v>
+        <v>663</v>
       </c>
       <c r="F342" t="s">
-        <v>506</v>
+        <v>664</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12406,10 +12412,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F343" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12435,10 +12441,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="F344" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12464,10 +12470,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>501</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>502</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12522,10 +12528,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="F347" t="s">
-        <v>512</v>
+        <v>668</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12551,10 +12557,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>95</v>
+        <v>513</v>
       </c>
       <c r="F348" t="s">
-        <v>96</v>
+        <v>514</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12580,10 +12586,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F349" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12609,13 +12615,13 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>57</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>58</v>
       </c>
       <c r="G350" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -12644,7 +12650,7 @@
         <v>670</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -12841,13 +12847,13 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>95</v>
+        <v>683</v>
       </c>
       <c r="F358" t="s">
-        <v>96</v>
+        <v>684</v>
       </c>
       <c r="G358" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -12870,13 +12876,13 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>659</v>
+        <v>95</v>
       </c>
       <c r="F359" t="s">
-        <v>660</v>
+        <v>96</v>
       </c>
       <c r="G359" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -12899,13 +12905,13 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="F360" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -13137,7 +13143,7 @@
         <v>700</v>
       </c>
       <c r="G368" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -13160,18 +13166,47 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F369" t="s">
+        <v>702</v>
+      </c>
+      <c r="G369" t="n">
+        <v>11</v>
+      </c>
+      <c r="H369" t="s">
+        <v>4</v>
+      </c>
+      <c r="I369" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370" t="n">
+        <v>369</v>
+      </c>
+      <c r="E370" t="s">
         <v>701</v>
       </c>
-      <c r="G369" t="n">
-        <v>1</v>
-      </c>
-      <c r="H369" t="s">
-        <v>4</v>
-      </c>
-      <c r="I369" t="n">
+      <c r="F370" t="s">
+        <v>703</v>
+      </c>
+      <c r="G370" t="n">
+        <v>1</v>
+      </c>
+      <c r="H370" t="s">
+        <v>4</v>
+      </c>
+      <c r="I370" t="n">
         <v>3</v>
       </c>
     </row>
